--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-desired-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-desired-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,10 +52,13 @@
     <t>crude</t>
   </si>
   <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>uncertainty</t>
+    <t>forced</t>
   </si>
   <si>
     <t>fraud</t>
@@ -64,60 +67,66 @@
     <t>collapse</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>pressure</t>
+    <t>shame</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>cut</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -139,61 +148,82 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>help</t>
@@ -202,49 +232,43 @@
     <t>please</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>care</t>
+    <t>yes</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>sure</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
 </sst>
 </file>
@@ -602,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,10 +634,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -671,13 +695,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -689,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -742,16 +766,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>0.9666666666666667</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -763,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -792,16 +816,16 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -813,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -842,16 +866,16 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -863,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -871,13 +895,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8698630136986302</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C7">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -889,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K7">
         <v>0.9302325581395349</v>
@@ -921,13 +945,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8695652173913043</v>
+        <v>0.8664383561643836</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -939,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>0.9268929503916449</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L8">
-        <v>355</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>355</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -963,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -971,13 +995,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -989,31 +1013,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.9216710182767625</v>
       </c>
       <c r="L9">
+        <v>353</v>
+      </c>
+      <c r="M9">
+        <v>353</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>30</v>
-      </c>
-      <c r="M9">
-        <v>30</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1021,13 +1045,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8333333333333334</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1042,16 +1066,16 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>0.8962264150943396</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L10">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1063,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1071,13 +1095,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7931034482758621</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1089,19 +1113,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>0.8943661971830986</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L11">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="M11">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1113,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1121,13 +1145,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.775</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1139,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>0.8936170212765957</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1163,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1171,13 +1195,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7692307692307693</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1192,16 +1216,16 @@
         <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K13">
-        <v>0.8928571428571429</v>
+        <v>0.8984375</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1213,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1221,13 +1245,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1239,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>0.890625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L14">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1263,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1271,13 +1295,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7538759689922481</v>
+        <v>0.7693798449612403</v>
       </c>
       <c r="C15">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="D15">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1289,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K15">
         <v>0.8875</v>
@@ -1321,13 +1345,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7450980392156863</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C16">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1339,19 +1363,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K16">
-        <v>0.8611111111111112</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1363,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1371,13 +1395,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7435897435897436</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1389,19 +1413,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K17">
-        <v>0.8536585365853658</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L17">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1413,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1421,13 +1445,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7301587301587301</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C18">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1439,19 +1463,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K18">
-        <v>0.8448275862068966</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L18">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="M18">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1463,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1471,13 +1495,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7288135593220338</v>
+        <v>0.75</v>
       </c>
       <c r="C19">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1489,19 +1513,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K19">
-        <v>0.7936507936507936</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L19">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1513,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1521,13 +1545,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7037037037037037</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1539,19 +1563,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K20">
-        <v>0.7916666666666666</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1563,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1571,13 +1595,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6778523489932886</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="C21">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="D21">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1589,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K21">
-        <v>0.7764705882352941</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L21">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="M21">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1613,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>76</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1621,13 +1645,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6774193548387096</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1639,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K22">
-        <v>0.7692307692307693</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1663,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1671,13 +1695,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6756756756756757</v>
+        <v>0.708994708994709</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1689,19 +1713,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K23">
-        <v>0.7491525423728813</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L23">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1713,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1721,13 +1745,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6727272727272727</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C24">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1739,19 +1763,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K24">
-        <v>0.7405857740585774</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L24">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1763,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>62</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1771,13 +1795,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5600000000000001</v>
+        <v>0.6644295302013423</v>
       </c>
       <c r="C25">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="D25">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1789,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K25">
-        <v>0.7340425531914894</v>
+        <v>0.7764705882352941</v>
       </c>
       <c r="L25">
-        <v>69</v>
+        <v>264</v>
       </c>
       <c r="M25">
-        <v>69</v>
+        <v>264</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1813,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1821,13 +1845,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5277777777777778</v>
+        <v>0.65625</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1839,19 +1863,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K26">
-        <v>0.7191011235955056</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L26">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1863,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1871,13 +1895,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5178571428571429</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D27">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1889,19 +1913,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K27">
-        <v>0.7076923076923077</v>
+        <v>0.76</v>
       </c>
       <c r="L27">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1913,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1921,13 +1945,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4909090909090909</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1939,19 +1963,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K28">
-        <v>0.6857142857142857</v>
+        <v>0.75</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1963,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1971,13 +1995,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4777777777777778</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C29">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D29">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1989,19 +2013,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K29">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="L29">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2013,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2021,13 +2045,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4126984126984127</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C30">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2039,19 +2063,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K30">
-        <v>0.6714285714285714</v>
+        <v>0.7322033898305085</v>
       </c>
       <c r="L30">
-        <v>47</v>
+        <v>216</v>
       </c>
       <c r="M30">
-        <v>47</v>
+        <v>216</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2063,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>23</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2071,13 +2095,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3766233766233766</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2089,19 +2113,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K31">
-        <v>0.6222222222222222</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="M31">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2113,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2121,13 +2145,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3375</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="C32">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D32">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2139,19 +2163,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K32">
-        <v>0.6060606060606061</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2163,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2171,38 +2195,38 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1715817694369973</v>
+        <v>0.4007936507936508</v>
       </c>
       <c r="C33">
+        <v>101</v>
+      </c>
+      <c r="D33">
+        <v>101</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>151</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33">
+        <v>0.7191011235955056</v>
+      </c>
+      <c r="L33">
         <v>64</v>
       </c>
-      <c r="D33">
+      <c r="M33">
         <v>64</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>309</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K33">
-        <v>0.5753424657534246</v>
-      </c>
-      <c r="L33">
-        <v>42</v>
-      </c>
-      <c r="M33">
-        <v>42</v>
-      </c>
       <c r="N33">
         <v>1</v>
       </c>
@@ -2213,21 +2237,45 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.3896103896103896</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>47</v>
+      </c>
       <c r="J34" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K34">
-        <v>0.575</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2239,21 +2287,45 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.35</v>
+      </c>
+      <c r="C35">
+        <v>28</v>
+      </c>
+      <c r="D35">
+        <v>28</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>52</v>
+      </c>
       <c r="J35" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2265,21 +2337,45 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.1983914209115281</v>
+      </c>
+      <c r="C36">
+        <v>74</v>
+      </c>
+      <c r="D36">
+        <v>74</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>299</v>
+      </c>
       <c r="J36" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K36">
-        <v>0.4615384615384616</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L36">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2291,21 +2387,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="J37" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K37">
-        <v>0.4385964912280702</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M37">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2317,21 +2413,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K38">
-        <v>0.392156862745098</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2343,21 +2439,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K39">
-        <v>0.328125</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="M39">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2369,7 +2465,137 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>43</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K40">
+        <v>0.547945205479452</v>
+      </c>
+      <c r="L40">
+        <v>40</v>
+      </c>
+      <c r="M40">
+        <v>40</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K41">
+        <v>0.5476190476190477</v>
+      </c>
+      <c r="L41">
+        <v>23</v>
+      </c>
+      <c r="M41">
+        <v>23</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K42">
+        <v>0.5256410256410257</v>
+      </c>
+      <c r="L42">
+        <v>41</v>
+      </c>
+      <c r="M42">
+        <v>41</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K43">
+        <v>0.40625</v>
+      </c>
+      <c r="L43">
+        <v>26</v>
+      </c>
+      <c r="M43">
+        <v>26</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="J44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K44">
+        <v>0.3898305084745763</v>
+      </c>
+      <c r="L44">
+        <v>23</v>
+      </c>
+      <c r="M44">
+        <v>23</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
